--- a/Test/xlsx/p_tag_font_color_test.xlsx
+++ b/Test/xlsx/p_tag_font_color_test.xlsx
@@ -30,7 +30,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -50,6 +50,12 @@
       <name val="Times New Roman"/>
       <sz val="12.0"/>
       <family val="0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <family val="0"/>
+      <color rgb="00F000"/>
     </font>
     <font>
       <name val="Times New Roman"/>
